--- a/biology/Botanique/Fer_servadou/Fer_servadou.xlsx
+++ b/biology/Botanique/Fer_servadou/Fer_servadou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fer servadou N[N 1] ou fer N est un cépage de vigne noir du sud-ouest de la France.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Selon Guy Lavignac[1], le fer appartient à la famille ampélographique des carmenets. Il aurait été ramené, au Moyen Âge, du Pays basque espagnol par des pèlerins de retour de Saint-Jacques-de-Compostelle. Il est présent dans tous les vignobles du sud-ouest, soit comme cépage exclusif à Marcillac, soit comme cépage obligatoire dans l'assemblage à Gaillac.
-Étymologie
-Il porte le nom de fer à cause de son bois, très dur à tailler ou de la fermeté de ses baies. On lui adjoint servadou qui signifie en occitan «qui se conserve bien».
-Synonymes
-Il est aussi appelé Pinenc en Béarn, Mansois, Saumançois ou Saumancès (Oc) en Aveyron ou encore Braucol dans le Tarn, Here sur la rive gauche de la Garonne, Estronc, Chalamoncet, Couahort, Herrant, Petit Morrastel, Queufort.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Guy Lavignac, le fer appartient à la famille ampélographique des carmenets. Il aurait été ramené, au Moyen Âge, du Pays basque espagnol par des pèlerins de retour de Saint-Jacques-de-Compostelle. Il est présent dans tous les vignobles du sud-ouest, soit comme cépage exclusif à Marcillac, soit comme cépage obligatoire dans l'assemblage à Gaillac.
 </t>
         </is>
       </c>
@@ -545,10 +558,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de fer à cause de son bois, très dur à tailler ou de la fermeté de ses baies. On lui adjoint servadou qui signifie en occitan «qui se conserve bien».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fer_servadou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fer_servadou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est aussi appelé Pinenc en Béarn, Mansois, Saumançois ou Saumancès (Oc) en Aveyron ou encore Braucol dans le Tarn, Here sur la rive gauche de la Garonne, Estronc, Chalamoncet, Couahort, Herrant, Petit Morrastel, Queufort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fer_servadou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fer_servadou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jeunes feuilles de couleur verte à plage bronzée
 Feuilles adultes de petite à moyenne taille, à 5 lobes avec sinus latéraux peu profonds, sinus pétiolaire peu ouvert, des dents courtes, une pigmentation anthocyanique des nervures nulle, un limbe tourmenté et face inférieure, une densité faible des poils dressés ou couchés.
@@ -557,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Fer_servadou</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fer_servadou</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Culturales: Il doit être taillé long à cause d'un pourcentage variable d'yeux qui ne débourrent pas. Les grappes se conservent bien sur souche, d'où son nom. (servar, servadou = conserver en occitan)
 Sensibilité: Il résiste bien à la pourriture grise et au mildiou, mais est sensible aux cicadelles.
@@ -589,34 +680,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Fer_servadou</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fer_servadou</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Neuf clones ont été agréés. (420, 421, 556, 557, 628, 670, 671, 672 et 895). Les quatre premiers sont les plus multipliés.
-Un conservatoire à Peyrole dans le Tarn regroupe 99 familles de fer. Si le besoin de nouveaux clones s'avérait nécessaire, il pourrait sortir de cette collection[2].
+Un conservatoire à Peyrole dans le Tarn regroupe 99 familles de fer. Si le besoin de nouveaux clones s'avérait nécessaire, il pourrait sortir de cette collection.
 </t>
         </is>
       </c>
